--- a/Data Collection/cinepolis - 24-08-2022.xlsx
+++ b/Data Collection/cinepolis - 24-08-2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28b2df8a1b1d5e58/Documents/GitHub/TrabajoFinalCurso/Data Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7064FA-9542-461C-8360-C709E83E0272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3A7064FA-9542-461C-8360-C709E83E0272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A29BC6-344C-4FD0-8948-6A67E286CCA5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1500,7 @@
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="110.140625" customWidth="1"/>
+    <col min="5" max="5" width="148.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
